--- a/individual_case_outputs/avey/83.xlsx
+++ b/individual_case_outputs/avey/83.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>folate deficiency</t>
+          <t>b12 deficiency</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>folate deficiency</t>
+          <t>b12 deficiency</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b12 deficiency</t>
+          <t>alcoholic liver disease</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -658,15 +658,11 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>alcoholic liver disease</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>folate deficiency</t>
+          <t>b12 deficiency</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -681,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>folate deficiency</t>
+          <t>anemia, iron deficiency</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -712,7 +708,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>folate deficiency</t>
+          <t>fungal infections</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -736,7 +732,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>alcoholic liver disease</t>
+          <t>esophageal varices</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -759,14 +755,10 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>b12 deficiency</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>fungal infections</t>
-        </is>
-      </c>
+          <t>anemia, iron deficiency</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
     </row>
@@ -776,11 +768,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>b12 deficiency</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
